--- a/datos/impacto_operacional.xlsx
+++ b/datos/impacto_operacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orose\Desktop\Pasantia\Script\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A93DD1E-A540-44B3-82FF-BC3BE0DF3583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA846A2-123F-47D6-9D5B-2BB05A10BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
